--- a/zhe800.xlsx
+++ b/zhe800.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14415" windowHeight="5985" tabRatio="500"/>
+    <workbookView windowWidth="19770" windowHeight="8370" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105">
   <si>
     <t>表名</t>
   </si>
@@ -230,6 +230,105 @@
   </si>
   <si>
     <t>商品名称</t>
+  </si>
+  <si>
+    <t>goods_no</t>
+  </si>
+  <si>
+    <t>商品货号</t>
+  </si>
+  <si>
+    <t>sell_price</t>
+  </si>
+  <si>
+    <t>销售价格</t>
+  </si>
+  <si>
+    <t>market_price</t>
+  </si>
+  <si>
+    <t>市场价格</t>
+  </si>
+  <si>
+    <t>cost_price</t>
+  </si>
+  <si>
+    <t>成本价格</t>
+  </si>
+  <si>
+    <t>store_nums</t>
+  </si>
+  <si>
+    <t>库存</t>
+  </si>
+  <si>
+    <t>up_time</t>
+  </si>
+  <si>
+    <t>上架时间</t>
+  </si>
+  <si>
+    <t>down_time</t>
+  </si>
+  <si>
+    <t>下架时间</t>
+  </si>
+  <si>
+    <t>img</t>
+  </si>
+  <si>
+    <t>商品图片</t>
+  </si>
+  <si>
+    <t>is_del</t>
+  </si>
+  <si>
+    <t>商品状态 0正常 1已删除 2下架 3申请上架</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>商品描述</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>samllint</t>
+  </si>
+  <si>
+    <t>排序</t>
+  </si>
+  <si>
+    <t>is_delivery_fee</t>
+  </si>
+  <si>
+    <t>免运费 0收运费 1免运费</t>
+  </si>
+  <si>
+    <t>seller_id</t>
+  </si>
+  <si>
+    <t>卖家id</t>
+  </si>
+  <si>
+    <t>sale</t>
+  </si>
+  <si>
+    <t>销量</t>
+  </si>
+  <si>
+    <t>经验值</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>评论次数</t>
   </si>
 </sst>
 </file>
@@ -237,9 +336,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -260,7 +359,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,112 +495,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
@@ -419,6 +518,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -437,91 +668,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,6 +680,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -545,61 +698,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,60 +727,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -703,6 +748,45 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -713,6 +797,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -728,148 +827,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -887,9 +986,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1210,17 +1307,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="27" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="7" max="7" width="25.125" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="9.5037037037037" customWidth="1"/>
+    <col min="7" max="7" width="25.1259259259259" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:7">
@@ -1471,85 +1568,85 @@
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:7">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="2">
         <v>0</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5" t="s">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:7">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="2">
         <v>11</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5" t="s">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:7">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="2">
         <v>11</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5" t="s">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:7">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5" t="s">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:7">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5" t="s">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1769,38 +1866,38 @@
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:7">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <v>11</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6" t="s">
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:7">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>0</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6" t="s">
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1877,13 +1974,302 @@
         <v>18</v>
       </c>
       <c r="C38" s="2">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:7">
+      <c r="A39" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="6">
+        <v>50</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:7">
+      <c r="A40" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="6">
+        <v>15</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:7">
+      <c r="A41" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="6">
+        <v>15</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:7">
+      <c r="A42" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="6">
+        <v>15</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:7">
+      <c r="A43" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="6">
+        <v>11</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:7">
+      <c r="A44" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="6">
+        <v>0</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:7">
+      <c r="A45" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="6">
+        <v>0</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:7">
+      <c r="A46" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="6">
+        <v>255</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:7">
+      <c r="A47" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="6">
+        <v>1</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:7">
+      <c r="A48" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="6">
+        <v>0</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:7">
+      <c r="A49" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="6">
+        <v>11</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:7">
+      <c r="A50" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" s="6">
+        <v>5</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:7">
+      <c r="A51" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" s="6">
+        <v>1</v>
+      </c>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:7">
+      <c r="A52" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="6">
+        <v>11</v>
+      </c>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:7">
+      <c r="A53" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="6">
+        <v>11</v>
+      </c>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:7">
+      <c r="A54" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="6">
+        <v>11</v>
+      </c>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:7">
+      <c r="A55" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="6">
+        <v>11</v>
+      </c>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
